--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_40.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_40.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_9</t>
+          <t>model_1_40_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9945348815743505</v>
+        <v>0.8867478073366353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.722417521899327</v>
+        <v>0.6531313592477835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7075964020105988</v>
+        <v>0.6684328116738103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9959979558233314</v>
+        <v>0.937632280642783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02293593292046599</v>
+        <v>0.4752952254120577</v>
       </c>
       <c r="G2" t="n">
-        <v>1.856195309208986</v>
+        <v>2.3195121978933</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04591071547333</v>
+        <v>1.185996607272581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02397847951774445</v>
+        <v>0.1128719940675173</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2866950278211913</v>
+        <v>2.131846986544311</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1514461386779669</v>
+        <v>0.6894165833602044</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003199093712575</v>
+        <v>0.611706768011321</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1578935143382138</v>
+        <v>0.7187664746029173</v>
       </c>
       <c r="N2" t="n">
-        <v>137.5501009500899</v>
+        <v>35.48763828166449</v>
       </c>
       <c r="O2" t="n">
-        <v>216.7770295665229</v>
+        <v>56.2085273044239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_8</t>
+          <t>model_1_40_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.994508254423394</v>
+        <v>0.8880079086802812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7222049087040548</v>
+        <v>0.6478151038511168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7070416404539658</v>
+        <v>0.6695677691512678</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9962121978589421</v>
+        <v>0.9350987926132828</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02304768137688351</v>
+        <v>0.4700068496368484</v>
       </c>
       <c r="G3" t="n">
-        <v>1.857617054624764</v>
+        <v>2.355062022209916</v>
       </c>
       <c r="H3" t="n">
-        <v>1.047895065394483</v>
+        <v>1.181936930184331</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02269483595061941</v>
+        <v>0.1174570558395858</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2886727424762732</v>
+        <v>2.12686965940087</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1518146283362822</v>
+        <v>0.6855704556330067</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003214680337525</v>
+        <v>0.6160271154752499</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1582776913641623</v>
+        <v>0.7147566092557908</v>
       </c>
       <c r="N3" t="n">
-        <v>137.5403802112473</v>
+        <v>35.51001602137761</v>
       </c>
       <c r="O3" t="n">
-        <v>216.7673088276804</v>
+        <v>56.23090504413702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_7</t>
+          <t>model_1_40_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9944786605237219</v>
+        <v>0.8892950490556677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7219884372454513</v>
+        <v>0.6399365383506257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7064758345450919</v>
+        <v>0.6706527280499421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.996422304480867</v>
+        <v>0.9326028387576623</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02317188064300509</v>
+        <v>0.4646049968296831</v>
       </c>
       <c r="G4" t="n">
-        <v>1.859064600265206</v>
+        <v>2.407746025989159</v>
       </c>
       <c r="H4" t="n">
-        <v>1.049918920323214</v>
+        <v>1.178056095113304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02143596995415157</v>
+        <v>0.1219741889284327</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2906630065320673</v>
+        <v>2.121697750048103</v>
       </c>
       <c r="K4" t="n">
-        <v>0.152223127819018</v>
+        <v>0.6816193929383781</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00323200359587</v>
+        <v>0.6204401681908607</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1587035815155887</v>
+        <v>0.7106373416424246</v>
       </c>
       <c r="N4" t="n">
-        <v>137.5296315533514</v>
+        <v>35.53313540716332</v>
       </c>
       <c r="O4" t="n">
-        <v>216.7565601697844</v>
+        <v>56.25402442992273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_6</t>
+          <t>model_1_40_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.99444601418213</v>
+        <v>0.8907364304414612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7217680260321496</v>
+        <v>0.625968712102287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7058991373615182</v>
+        <v>0.6717466089306561</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9966280460928092</v>
+        <v>0.9301614234591875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02330889035487811</v>
+        <v>0.4585558274974664</v>
       </c>
       <c r="G5" t="n">
-        <v>1.860538491063454</v>
+        <v>2.501148944427726</v>
       </c>
       <c r="H5" t="n">
-        <v>1.051981732710032</v>
+        <v>1.174143346629848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.020203257167855</v>
+        <v>0.1263926191023411</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2926660070230453</v>
+        <v>2.115784749653892</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1526724937730373</v>
+        <v>0.6771675032792598</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003251113649485</v>
+        <v>0.6253820472278671</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1591720779085863</v>
+        <v>0.7059959258238355</v>
       </c>
       <c r="N5" t="n">
-        <v>137.5178408617818</v>
+        <v>35.55934646705136</v>
       </c>
       <c r="O5" t="n">
-        <v>216.7447694782148</v>
+        <v>56.28023548981077</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9944101098808599</v>
+        <v>0.8965856357748268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7215436398239736</v>
+        <v>0.6192027153775747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7053105549309286</v>
+        <v>0.6728529126085738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9968289727652749</v>
+        <v>0.9186064815901169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02345957302656971</v>
+        <v>0.4340079639901607</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86203896267073</v>
+        <v>2.546393195680427</v>
       </c>
       <c r="H6" t="n">
-        <v>1.054087057936281</v>
+        <v>1.17018616252111</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01899939337035471</v>
+        <v>0.1473045482788137</v>
       </c>
       <c r="J6" t="n">
-        <v>0.294681443185459</v>
+        <v>2.089406419064634</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1531651821615138</v>
+        <v>0.6587928080892814</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003272130801448</v>
+        <v>0.6454364655136917</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1596857410617659</v>
+        <v>0.686838981818757</v>
       </c>
       <c r="N6" t="n">
-        <v>137.5049532719668</v>
+        <v>35.66938478968471</v>
       </c>
       <c r="O6" t="n">
-        <v>216.7318818883998</v>
+        <v>56.39027381244411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_4</t>
+          <t>model_1_40_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9943708858310912</v>
+        <v>0.8988074274494491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.721315092463898</v>
+        <v>0.6181475955037319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7047105602385593</v>
+        <v>0.6729826288979692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9970247771330814</v>
+        <v>0.9129192044438452</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02362418797254072</v>
+        <v>0.4246835796230766</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86356725991992</v>
+        <v>2.553448787135194</v>
       </c>
       <c r="H7" t="n">
-        <v>1.056233204161195</v>
+        <v>1.169722174875325</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01782622015794905</v>
+        <v>0.1575972817462278</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2967073895161755</v>
+        <v>2.078819040474985</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1537016199411728</v>
+        <v>0.6516775119820206</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003295091220825</v>
+        <v>0.6530540369695397</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1602450161082842</v>
+        <v>0.6794207728255167</v>
       </c>
       <c r="N7" t="n">
-        <v>137.4909683554514</v>
+        <v>35.71282181176645</v>
       </c>
       <c r="O7" t="n">
-        <v>216.7178969718845</v>
+        <v>56.43371083452585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_3</t>
+          <t>model_1_40_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9943281079782051</v>
+        <v>0.9012543443544602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7210824556026769</v>
+        <v>0.6156111368750482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7040987556913785</v>
+        <v>0.6730247754463666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9972150051267745</v>
+        <v>0.9057203053019667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02380371746995652</v>
+        <v>0.4144143928234113</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8651229036821</v>
+        <v>2.57041009766452</v>
       </c>
       <c r="H8" t="n">
-        <v>1.058421593551995</v>
+        <v>1.169571419115504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01668645811407525</v>
+        <v>0.1706257219330621</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2987491828733269</v>
+        <v>2.067798379386097</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1542845341243137</v>
+        <v>0.6437502565618217</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003320131915197</v>
+        <v>0.6614434663581492</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1608527461550001</v>
+        <v>0.671156037730399</v>
       </c>
       <c r="N8" t="n">
-        <v>137.4758270285708</v>
+        <v>35.76177771384654</v>
       </c>
       <c r="O8" t="n">
-        <v>216.7027556450039</v>
+        <v>56.48266673660595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_2</t>
+          <t>model_1_40_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9942816568630892</v>
+        <v>0.8977351449898286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7208455564599485</v>
+        <v>0.6153706939952859</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7034749014425437</v>
+        <v>0.6729419938413763</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9973993891159038</v>
+        <v>0.9157533190809511</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02399866286315783</v>
+        <v>0.4291837197207222</v>
       </c>
       <c r="G9" t="n">
-        <v>1.866707049340345</v>
+        <v>2.572017940308629</v>
       </c>
       <c r="H9" t="n">
-        <v>1.06065308402693</v>
+        <v>1.169867524116602</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01558171076208236</v>
+        <v>0.1524681512632952</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3008042210144999</v>
+        <v>2.083750953912581</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1549150181975842</v>
+        <v>0.655121148888297</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00334732281185</v>
+        <v>0.6493776399651268</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1615100712405517</v>
+        <v>0.6830110124842045</v>
       </c>
       <c r="N9" t="n">
-        <v>137.4595143284427</v>
+        <v>35.69174040126039</v>
       </c>
       <c r="O9" t="n">
-        <v>216.6864429448758</v>
+        <v>56.4126294240198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_1</t>
+          <t>model_1_40_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9942314626693548</v>
+        <v>0.8940990693736774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7206043621018349</v>
+        <v>0.6150884939179411</v>
       </c>
       <c r="D10" t="n">
-        <v>0.702838576215453</v>
+        <v>0.672648630733673</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9975774177424652</v>
+        <v>0.9241678803829714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02420931715659225</v>
+        <v>0.4444435512431976</v>
       </c>
       <c r="G10" t="n">
-        <v>1.868319917123649</v>
+        <v>2.573905013525245</v>
       </c>
       <c r="H10" t="n">
-        <v>1.062929182467976</v>
+        <v>1.170916866942686</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01451504193307148</v>
+        <v>0.137239627226325</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3028709971656325</v>
+        <v>2.10109528355185</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1555934354546883</v>
+        <v>0.666665996765395</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003376704778914</v>
+        <v>0.6369110949954655</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1622173701248081</v>
+        <v>0.6950473484365601</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4420354268894</v>
+        <v>35.62186445184231</v>
       </c>
       <c r="O10" t="n">
-        <v>216.6689640433225</v>
+        <v>56.34275347460171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_0</t>
+          <t>model_1_40_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9941772595746685</v>
+        <v>0.9003212459077324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7203588576507624</v>
+        <v>0.6130131060167616</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7021898484213551</v>
+        <v>0.6730287974773559</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977487592823475</v>
+        <v>0.9086014811395834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0244367959497273</v>
+        <v>0.4183304073935428</v>
       </c>
       <c r="G11" t="n">
-        <v>1.869961606518415</v>
+        <v>2.587783141976715</v>
       </c>
       <c r="H11" t="n">
-        <v>1.065249644172066</v>
+        <v>1.169557032543866</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01348843917127341</v>
+        <v>0.1654114209228182</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3049544833488534</v>
+        <v>2.072108087108632</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1563227301121859</v>
+        <v>0.6467846684898636</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003408433419706</v>
+        <v>0.6582442716836541</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1629777123657233</v>
+        <v>0.6743196308563163</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4233305037858</v>
+        <v>35.74296742077441</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6502591202189</v>
+        <v>56.46385644353382</v>
       </c>
     </row>
   </sheetData>
